--- a/sofaplayer/Premier_League/Crystal Palace_stats.xlsx
+++ b/sofaplayer/Premier_League/Crystal Palace_stats.xlsx
@@ -2808,341 +2808,341 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Christantus Uche</t>
+          <t>Jørgen Strand Larsen</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1884145</v>
+        <v>876599</v>
       </c>
       <c r="E7" t="n">
-        <v>6.4416666666667</v>
+        <v>6.3916666666667</v>
       </c>
       <c r="F7" t="n">
+        <v>24</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1585</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.7515</v>
+      </c>
+      <c r="L7" t="n">
+        <v>528.33333333333</v>
+      </c>
+      <c r="M7" t="n">
+        <v>27</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>11.111111111111</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>50</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.50606241</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>522</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>65.472312703583</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>307</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>131</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>44.444444444444</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>38.461538461538</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>74</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>33.94495412844</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>24</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>25.806451612903</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>50</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>40</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>190</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>36</v>
+      </c>
+      <c r="BI7" t="n">
         <v>13</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>184</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.3928</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="BJ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>29</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>24</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>106</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>24</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>18</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>12</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>6</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>7</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>13</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>144</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>75</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>94</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>213</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" t="n">
         <v>5</v>
       </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.02374235</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>104</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>57.142857142857</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>56</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>29.268292682927</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>25</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>35.294117647059</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>50</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>12</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>24</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>6</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>3</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>4</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>6</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>29</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>11</v>
-      </c>
-      <c r="CW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ7" t="n">
-        <v>3</v>
-      </c>
-      <c r="DA7" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB7" t="n">
-        <v>100</v>
-      </c>
-      <c r="DC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF7" t="n">
-        <v>11</v>
-      </c>
-      <c r="DG7" t="n">
-        <v>45</v>
-      </c>
-      <c r="DH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI7" t="n">
-        <v>0</v>
-      </c>
       <c r="DJ7" t="n">
-        <v>2260931</v>
+        <v>2139143</v>
       </c>
       <c r="DK7" t="inlineStr">
         <is>
@@ -3164,317 +3164,317 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jørgen Strand Larsen</t>
+          <t>Christantus Uche</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>876599</v>
+        <v>1884145</v>
       </c>
       <c r="E8" t="n">
-        <v>6.3916666666667</v>
+        <v>6.4416666666667</v>
       </c>
       <c r="F8" t="n">
+        <v>13</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>184</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.3928</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.02374235</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>104</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>57.142857142857</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>56</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>29.268292682927</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>25</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>35.294117647059</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>12</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
         <v>24</v>
       </c>
-      <c r="G8" t="n">
-        <v>16</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1585</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>6</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
         <v>3</v>
       </c>
-      <c r="K8" t="n">
-        <v>3.7515</v>
-      </c>
-      <c r="L8" t="n">
-        <v>528.33333333333</v>
-      </c>
-      <c r="M8" t="n">
-        <v>27</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="CK8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>6</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>29</v>
+      </c>
+      <c r="CV8" t="n">
         <v>11</v>
       </c>
-      <c r="O8" t="n">
-        <v>4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>11.111111111111</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>50</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
         <v>3</v>
       </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.50606241</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>522</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>65.472312703583</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>307</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>131</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>44.444444444444</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>38.461538461538</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>74</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>33.94495412844</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>24</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>25.806451612903</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>50</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>40</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>190</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>36</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>13</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>29</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>24</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>4</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>106</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>24</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>3</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>18</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>23</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>6</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>7</v>
-      </c>
-      <c r="CS8" t="n">
-        <v>13</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>144</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>75</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ8" t="n">
-        <v>9</v>
-      </c>
       <c r="DA8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DB8" t="n">
-        <v>33.333333333333</v>
+        <v>100</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,19 +3486,19 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="DG8" t="n">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
       </c>
       <c r="DI8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="DJ8" t="n">
-        <v>2139143</v>
+        <v>2260931</v>
       </c>
       <c r="DK8" t="inlineStr">
         <is>

--- a/sofaplayer/Premier_League/Crystal Palace_stats.xlsx
+++ b/sofaplayer/Premier_League/Crystal Palace_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL23"/>
+  <dimension ref="A1:DL24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2452,113 +2452,113 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Evann Guessand</t>
+          <t>Jørgen Strand Larsen</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>930245</v>
+        <v>876599</v>
       </c>
       <c r="E6" t="n">
-        <v>6.4733333333333</v>
+        <v>6.3916666666667</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G6" t="n">
+        <v>16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1585</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.7515</v>
+      </c>
+      <c r="L6" t="n">
+        <v>528.33333333333</v>
+      </c>
+      <c r="M6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>11.111111111111</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>50</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.50606241</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>522</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
         <v>7</v>
       </c>
-      <c r="H6" t="n">
-        <v>689</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.2702</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>9</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.67448294</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>289</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>5</v>
-      </c>
       <c r="AE6" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AF6" t="n">
-        <v>80.8</v>
+        <v>65.472312703583</v>
       </c>
       <c r="AG6" t="n">
-        <v>125</v>
+        <v>307</v>
       </c>
       <c r="AH6" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AI6" t="n">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="AJ6" t="n">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AK6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>44.444444444444</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -2567,73 +2567,73 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP6" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AS6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AU6" t="n">
         <v>6</v>
       </c>
-      <c r="AU6" t="n">
-        <v>1</v>
-      </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
         <v>0</v>
       </c>
       <c r="AY6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>33.333333333333</v>
+        <v>38.461538461538</v>
       </c>
       <c r="BA6" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="BB6" t="n">
-        <v>44.628099173554</v>
+        <v>33.94495412844</v>
       </c>
       <c r="BC6" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="BD6" t="n">
-        <v>43.68932038835</v>
+        <v>25.806451612903</v>
       </c>
       <c r="BE6" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="BF6" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BG6" t="n">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="BH6" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="BI6" t="n">
         <v>13</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BK6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL6" t="n">
         <v>0</v>
@@ -2642,151 +2642,151 @@
         <v>0</v>
       </c>
       <c r="BN6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO6" t="n">
+        <v>29</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>24</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>106</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>24</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>18</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>23</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>6</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>7</v>
+      </c>
+      <c r="CS6" t="n">
         <v>13</v>
       </c>
-      <c r="BP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BS6" t="n">
+      <c r="CT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>144</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>75</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="DA6" t="n">
         <v>2</v>
       </c>
-      <c r="BT6" t="n">
-        <v>24</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>9</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>22</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR6" t="n">
+      <c r="DB6" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>94</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>213</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI6" t="n">
         <v>5</v>
       </c>
-      <c r="CS6" t="n">
-        <v>30</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>10</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>67</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>9</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>2</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>59.090909090909</v>
-      </c>
-      <c r="DC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF6" t="n">
-        <v>35</v>
-      </c>
-      <c r="DG6" t="n">
-        <v>90</v>
-      </c>
-      <c r="DH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI6" t="n">
-        <v>3</v>
-      </c>
       <c r="DJ6" t="n">
-        <v>2163594</v>
+        <v>2139143</v>
       </c>
       <c r="DK6" t="inlineStr">
         <is>
@@ -2808,341 +2808,341 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jørgen Strand Larsen</t>
+          <t>Evann Guessand</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>876599</v>
+        <v>930245</v>
       </c>
       <c r="E7" t="n">
-        <v>6.3916666666667</v>
+        <v>6.4733333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>1585</v>
+        <v>689</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.2702</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
         <v>3</v>
       </c>
-      <c r="K7" t="n">
-        <v>3.7515</v>
-      </c>
-      <c r="L7" t="n">
-        <v>528.33333333333</v>
-      </c>
-      <c r="M7" t="n">
-        <v>27</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4</v>
-      </c>
       <c r="P7" t="n">
-        <v>11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.67448294</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>289</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>125</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>71</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>43</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="n">
         <v>50</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
         <v>2</v>
       </c>
-      <c r="Y7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.50606241</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>522</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>65.472312703583</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>307</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>131</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>44.444444444444</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>4</v>
-      </c>
       <c r="AP7" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AQ7" t="n">
         <v>3</v>
       </c>
       <c r="AR7" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AS7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>54</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>44.628099173554</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>45</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>43.68932038835</v>
+      </c>
+      <c r="BE7" t="n">
         <v>9</v>
       </c>
-      <c r="AT7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>38.461538461538</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>74</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>33.94495412844</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>24</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>25.806451612903</v>
-      </c>
-      <c r="BE7" t="n">
+      <c r="BF7" t="n">
         <v>50</v>
       </c>
-      <c r="BF7" t="n">
-        <v>40</v>
-      </c>
       <c r="BG7" t="n">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="BH7" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="BI7" t="n">
         <v>13</v>
       </c>
       <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>13</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>15</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>24</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>22</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>12</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>5</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>30</v>
+      </c>
+      <c r="CT7" t="n">
         <v>10</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="CU7" t="n">
+        <v>67</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>9</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>2</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>59.090909090909</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>35</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>90</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" t="n">
         <v>3</v>
       </c>
-      <c r="BL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>29</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>24</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>106</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>10</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>24</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>3</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>18</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>12</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>23</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>6</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>7</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>13</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>144</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>75</v>
-      </c>
-      <c r="CW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="DA7" t="n">
-        <v>2</v>
-      </c>
-      <c r="DB7" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="DC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF7" t="n">
-        <v>94</v>
-      </c>
-      <c r="DG7" t="n">
-        <v>213</v>
-      </c>
-      <c r="DH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI7" t="n">
-        <v>5</v>
-      </c>
       <c r="DJ7" t="n">
-        <v>2139143</v>
+        <v>2163594</v>
       </c>
       <c r="DK7" t="inlineStr">
         <is>
@@ -6722,333 +6722,331 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Chadi Riad</t>
+          <t>Kaden Rodney</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1064218</v>
+        <v>1185603</v>
       </c>
       <c r="E18" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.00026374</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
         <v>3</v>
       </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>120</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.0883</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.02608293</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>147</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>110</v>
-      </c>
       <c r="AF18" t="n">
-        <v>86.614173228346</v>
+        <v>60</v>
       </c>
       <c r="AG18" t="n">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="AH18" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="AI18" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>2</v>
+      </c>
+      <c r="DG18" t="n">
         <v>3</v>
       </c>
-      <c r="AL18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>53.846153846154</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>40</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>20</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>3</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>17</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT18" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU18" t="n">
-        <v>6</v>
-      </c>
-      <c r="CV18" t="n">
-        <v>3</v>
-      </c>
-      <c r="CW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ18" t="n">
-        <v>10</v>
-      </c>
-      <c r="DA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF18" t="n">
-        <v>68</v>
-      </c>
-      <c r="DG18" t="n">
-        <v>59</v>
-      </c>
       <c r="DH18" t="n">
         <v>0</v>
       </c>
@@ -7056,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="DJ18" t="n">
-        <v>2609362</v>
+        <v>2573141</v>
       </c>
       <c r="DK18" t="inlineStr">
         <is>
@@ -7078,300 +7076,300 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Maxence Lacroix</t>
+          <t>Chadi Riad</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>879674</v>
+        <v>1064218</v>
       </c>
       <c r="E19" t="n">
-        <v>6.8730769230769</v>
+        <v>6.7</v>
       </c>
       <c r="F19" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>2340</v>
+        <v>120</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0883</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.02608293</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>147</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>86.614173228346</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>127</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>62</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>53.846153846154</v>
+      </c>
+      <c r="BC19" t="n">
         <v>2</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>15</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="BD19" t="n">
+        <v>40</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="BR19" t="n">
         <v>3</v>
       </c>
-      <c r="O19" t="n">
+      <c r="BS19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>17</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT19" t="n">
         <v>2</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.78779318</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1644</v>
-      </c>
-      <c r="AC19" t="n">
+      <c r="CU19" t="n">
+        <v>6</v>
+      </c>
+      <c r="CV19" t="n">
         <v>3</v>
       </c>
-      <c r="AD19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1066</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>87.664473684211</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1216</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>764</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>302</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>72</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>47.794117647059</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>49</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>73</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>182</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>55.555555555556</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>148</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>61.157024793388</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>69</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>63.888888888889</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>79</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>58.955223880597</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>182</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>23</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>15</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>9</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>32</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>178.7</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>26</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>150</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>8</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>14</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>6</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>43</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>14</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>28</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>4</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>5</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>9</v>
-      </c>
-      <c r="CT19" t="n">
-        <v>5</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>94</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>55</v>
-      </c>
       <c r="CW19" t="n">
         <v>0</v>
       </c>
@@ -7382,13 +7380,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="DA19" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="DB19" t="n">
-        <v>61.224489795918</v>
+        <v>0</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7400,19 +7398,19 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>812</v>
+        <v>68</v>
       </c>
       <c r="DG19" t="n">
-        <v>404</v>
+        <v>59</v>
       </c>
       <c r="DH19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI19" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="DJ19" t="n">
-        <v>2143808</v>
+        <v>2609362</v>
       </c>
       <c r="DK19" t="inlineStr">
         <is>
@@ -7434,47 +7432,47 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Chris Richards</t>
+          <t>Maxence Lacroix</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>931844</v>
+        <v>879674</v>
       </c>
       <c r="E20" t="n">
-        <v>6.9863636363636</v>
+        <v>6.8730769230769</v>
       </c>
       <c r="F20" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H20" t="n">
-        <v>1973</v>
+        <v>2340</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9624</v>
+        <v>1.768</v>
       </c>
       <c r="L20" t="n">
-        <v>1973</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -7486,13 +7484,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -7501,115 +7499,115 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.08467019</v>
+        <v>0.78779318</v>
       </c>
       <c r="AB20" t="n">
-        <v>1367</v>
+        <v>1644</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
-        <v>791</v>
+        <v>1066</v>
       </c>
       <c r="AF20" t="n">
-        <v>82.56784968684801</v>
+        <v>87.664473684211</v>
       </c>
       <c r="AG20" t="n">
-        <v>958</v>
+        <v>1216</v>
       </c>
       <c r="AH20" t="n">
-        <v>531</v>
+        <v>764</v>
       </c>
       <c r="AI20" t="n">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="AJ20" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="AK20" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="AL20" t="n">
-        <v>41.592920353982</v>
+        <v>47.794117647059</v>
       </c>
       <c r="AM20" t="n">
         <v>2</v>
       </c>
       <c r="AN20" t="n">
-        <v>22.222222222222</v>
+        <v>40</v>
       </c>
       <c r="AO20" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AP20" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AS20" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AT20" t="n">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="AU20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="n">
         <v>5</v>
       </c>
-      <c r="AV20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>4</v>
-      </c>
       <c r="AZ20" t="n">
-        <v>66.666666666667</v>
+        <v>55.555555555556</v>
       </c>
       <c r="BA20" t="n">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="BB20" t="n">
-        <v>59.708737864078</v>
+        <v>61.157024793388</v>
       </c>
       <c r="BC20" t="n">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="BD20" t="n">
-        <v>62.068965517241</v>
+        <v>63.888888888889</v>
       </c>
       <c r="BE20" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="BF20" t="n">
-        <v>57.983193277311</v>
+        <v>58.955223880597</v>
       </c>
       <c r="BG20" t="n">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="BH20" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="BI20" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="BJ20" t="n">
         <v>0</v>
@@ -7624,109 +7622,109 @@
         <v>0</v>
       </c>
       <c r="BN20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BO20" t="n">
+        <v>32</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>178.7</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>26</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>150</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>14</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>6</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>43</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>14</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
         <v>28</v>
       </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>153.7</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>22</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>167</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>8</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
+      <c r="CK20" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR20" t="n">
         <v>5</v>
       </c>
-      <c r="CC20" t="n">
-        <v>56</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>18</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>25</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>6</v>
-      </c>
       <c r="CS20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CT20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CU20" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="CV20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7738,13 +7736,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="DA20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="DB20" t="n">
-        <v>61.702127659574</v>
+        <v>61.224489795918</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7756,19 +7754,19 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>587</v>
+        <v>812</v>
       </c>
       <c r="DG20" t="n">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="DH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="DJ20" t="n">
-        <v>2143773</v>
+        <v>2143808</v>
       </c>
       <c r="DK20" t="inlineStr">
         <is>
@@ -7790,299 +7788,299 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Jaydee Canvot</t>
+          <t>Chris Richards</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1471671</v>
+        <v>931844</v>
       </c>
       <c r="E21" t="n">
-        <v>6.7375</v>
+        <v>6.9863636363636</v>
       </c>
       <c r="F21" t="n">
+        <v>22</v>
+      </c>
+      <c r="G21" t="n">
+        <v>22</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1973</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9624</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1973</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1.08467019</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1367</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>791</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>82.56784968684801</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>958</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>531</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>88</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>47</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>41.592920353982</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>22.222222222222</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>31</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>47</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>133</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>123</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>59.708737864078</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>54</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>62.068965517241</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>69</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>57.983193277311</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>245</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>28</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>167</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>56</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>18</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>25</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>6</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>6</v>
+      </c>
+      <c r="CT21" t="n">
         <v>9</v>
       </c>
-      <c r="G21" t="n">
-        <v>3</v>
-      </c>
-      <c r="H21" t="n">
-        <v>367</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.12166959</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>255</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>86.70520231213899</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>173</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>98</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>52</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>27</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>61.363636363636</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>18</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>58.064516129032</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>69.230769230769</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>31</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>6</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>8</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>23</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>6</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>2</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>5</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>0</v>
-      </c>
       <c r="CU21" t="n">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="CV21" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8094,37 +8092,37 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
+        <v>113</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>29</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>61.702127659574</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>587</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>371</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI21" t="n">
         <v>14</v>
       </c>
-      <c r="DA21" t="n">
-        <v>9</v>
-      </c>
-      <c r="DB21" t="n">
-        <v>56.25</v>
-      </c>
-      <c r="DC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF21" t="n">
-        <v>108</v>
-      </c>
-      <c r="DG21" t="n">
-        <v>65</v>
-      </c>
-      <c r="DH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI21" t="n">
-        <v>4</v>
-      </c>
       <c r="DJ21" t="n">
-        <v>2427336</v>
+        <v>2143773</v>
       </c>
       <c r="DK21" t="inlineStr">
         <is>
@@ -8146,296 +8144,296 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nathaniel Clyne</t>
+          <t>Jaydee Canvot</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>43215</v>
+        <v>1471671</v>
       </c>
       <c r="E22" t="n">
-        <v>6.7</v>
+        <v>6.7375</v>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>367</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.12166959</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>255</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>86.70520231213899</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>173</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>98</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>52</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK22" t="n">
         <v>6</v>
-      </c>
-      <c r="H22" t="n">
-        <v>430</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.4306</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.63634589</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>218</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>98</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>76.5625</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>128</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>54</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>3</v>
       </c>
       <c r="AL22" t="n">
         <v>42.857142857143</v>
       </c>
       <c r="AM22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.090909090909101</v>
+        <v>0</v>
       </c>
       <c r="AO22" t="n">
         <v>4</v>
       </c>
       <c r="AP22" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AQ22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AT22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>27</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>61.363636363636</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>58.064516129032</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>69.230769230769</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>31</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>23</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>6</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>5</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU22" t="n">
         <v>17</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>57.142857142857</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>62.068965517241</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>17</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>70.833333333333</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>20</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>50</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>8</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>7</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>30</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>5</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>6</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>7</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>11</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>11</v>
       </c>
       <c r="CV22" t="n">
         <v>4</v>
@@ -8450,13 +8448,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="DA22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="DB22" t="n">
-        <v>66.666666666667</v>
+        <v>56.25</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8468,19 +8466,19 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="DG22" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="DH22" t="n">
         <v>0</v>
       </c>
       <c r="DI22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DJ22" t="n">
-        <v>2199205</v>
+        <v>2427336</v>
       </c>
       <c r="DK22" t="inlineStr">
         <is>
@@ -8502,346 +8500,702 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>Nathaniel Clyne</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>43215</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>430</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4306</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.63634589</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>218</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>98</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>76.5625</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>128</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>54</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>42.857142857143</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>9.090909090909101</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>57.142857142857</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>62.068965517241</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>70.833333333333</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>20</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>30</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>5</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>6</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>7</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>11</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>11</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>4</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>7</v>
+      </c>
+      <c r="DA23" t="n">
+        <v>8</v>
+      </c>
+      <c r="DB23" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>56</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>72</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>2199205</v>
+      </c>
+      <c r="DK23" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="DL23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Premier_League</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Dean Henderson</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D24" t="n">
         <v>788134</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E24" t="n">
         <v>7</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F24" t="n">
         <v>26</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G24" t="n">
         <v>26</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>2340</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I24" t="n">
         <v>3</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
         <v>0.1113769</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AB24" t="n">
         <v>1035</v>
       </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE23" t="n">
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="n">
         <v>455</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AF24" t="n">
         <v>56.662515566625</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AG24" t="n">
         <v>803</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AH24" t="n">
         <v>359</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AI24" t="n">
         <v>96</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AJ24" t="n">
         <v>44</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AK24" t="n">
         <v>123</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AL24" t="n">
         <v>26.170212765957</v>
       </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
         <v>2</v>
       </c>
-      <c r="AP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
         <v>210</v>
       </c>
-      <c r="AS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT23" t="n">
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
         <v>34</v>
       </c>
-      <c r="AU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ23" t="n">
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>100</v>
       </c>
-      <c r="BA23" t="n">
+      <c r="BA24" t="n">
         <v>14</v>
       </c>
-      <c r="BB23" t="n">
+      <c r="BB24" t="n">
         <v>82.35294117647101</v>
       </c>
-      <c r="BC23" t="n">
+      <c r="BC24" t="n">
         <v>3</v>
       </c>
-      <c r="BD23" t="n">
+      <c r="BD24" t="n">
         <v>75</v>
       </c>
-      <c r="BE23" t="n">
+      <c r="BE24" t="n">
         <v>11</v>
       </c>
-      <c r="BF23" t="n">
+      <c r="BF24" t="n">
         <v>84.615384615385</v>
       </c>
-      <c r="BG23" t="n">
+      <c r="BG24" t="n">
         <v>354</v>
       </c>
-      <c r="BH23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI23" t="n">
+      <c r="BH24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI24" t="n">
         <v>4</v>
       </c>
-      <c r="BJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK23" t="n">
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
         <v>2</v>
       </c>
-      <c r="BL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM23" t="n">
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
         <v>67</v>
       </c>
-      <c r="BN23" t="n">
+      <c r="BN24" t="n">
         <v>9</v>
       </c>
-      <c r="BO23" t="n">
+      <c r="BO24" t="n">
         <v>32</v>
       </c>
-      <c r="BP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ23" t="n">
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
         <v>182</v>
       </c>
-      <c r="BR23" t="n">
+      <c r="BR24" t="n">
         <v>26</v>
       </c>
-      <c r="BS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT23" t="n">
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
         <v>348</v>
       </c>
-      <c r="BU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC23" t="n">
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
         <v>34</v>
       </c>
-      <c r="CD23" t="n">
+      <c r="CD24" t="n">
         <v>22</v>
       </c>
-      <c r="CE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG23" t="n">
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
         <v>3</v>
       </c>
-      <c r="CH23" t="n">
+      <c r="CH24" t="n">
         <v>51</v>
       </c>
-      <c r="CI23" t="n">
+      <c r="CI24" t="n">
         <v>15</v>
       </c>
-      <c r="CJ23" t="n">
+      <c r="CJ24" t="n">
         <v>28</v>
       </c>
-      <c r="CK23" t="n">
+      <c r="CK24" t="n">
         <v>4</v>
       </c>
-      <c r="CL23" t="n">
+      <c r="CL24" t="n">
         <v>20</v>
       </c>
-      <c r="CM23" t="n">
+      <c r="CM24" t="n">
         <v>15</v>
       </c>
-      <c r="CN23" t="n">
+      <c r="CN24" t="n">
         <v>15</v>
       </c>
-      <c r="CO23" t="n">
+      <c r="CO24" t="n">
         <v>16</v>
       </c>
-      <c r="CP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU23" t="n">
+      <c r="CP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU24" t="n">
         <v>3</v>
       </c>
-      <c r="CV23" t="n">
+      <c r="CV24" t="n">
         <v>2</v>
       </c>
-      <c r="CW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ23" t="n">
+      <c r="CW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ24" t="n">
         <v>470</v>
       </c>
-      <c r="DA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD23" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE23" t="n">
+      <c r="DA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE24" t="n">
         <v>9</v>
       </c>
-      <c r="DF23" t="n">
+      <c r="DF24" t="n">
         <v>395</v>
       </c>
-      <c r="DG23" t="n">
+      <c r="DG24" t="n">
         <v>408</v>
       </c>
-      <c r="DH23" t="n">
+      <c r="DH24" t="n">
         <v>186</v>
       </c>
-      <c r="DI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ23" t="n">
+      <c r="DI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ24" t="n">
         <v>2143768</v>
       </c>
-      <c r="DK23" t="inlineStr">
+      <c r="DK24" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL23" t="n">
+      <c r="DL24" t="n">
         <v>1.8662</v>
       </c>
     </row>
